--- a/uHeater_Ctrl/TestData.xlsx
+++ b/uHeater_Ctrl/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robertsheehan\Programming\Microcontrollers\ArdForPY\uHeater_Ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0C4C3-56BC-4ED9-A406-1DC0E5B82410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559AED1-1EB8-4ED9-8A47-5D439119466F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{834B3B8B-1579-41EA-A8D2-BD385D630267}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{834B3B8B-1579-41EA-A8D2-BD385D630267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>IBM4 PWM Characterisation</t>
   </si>
@@ -71,12 +71,6 @@
     <t>Err / V</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
     <t>Ampl. Val / V</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>Gain</t>
   </si>
   <si>
     <t>Vcc / V</t>
@@ -254,12 +245,77 @@
       <t xml:space="preserve"> / mA</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Slope / k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Not enough power to supply this much current</t>
+  </si>
+  <si>
+    <t>Op-Amp</t>
+  </si>
+  <si>
+    <t>MCP602</t>
+  </si>
+  <si>
+    <t>BJT</t>
+  </si>
+  <si>
+    <t>2N3904</t>
+  </si>
+  <si>
+    <t>Possible to drive more current with BC337?</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +338,14 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,10 +367,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +541,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$9:$A$19</c:f>
+              <c:f>Sheet1!$A$12:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -518,7 +583,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$19</c:f>
+              <c:f>Sheet1!$E$12:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -642,7 +707,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$9:$A$19</c:f>
+              <c:f>Sheet1!$A$12:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -684,7 +749,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$9:$G$19</c:f>
+              <c:f>Sheet1!$G$12:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1101,7 +1166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1188,7 +1253,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$9:$E$19</c:f>
+              <c:f>Sheet1!$E$12:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1230,7 +1295,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$9:$G$19</c:f>
+              <c:f>Sheet1!$G$12:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1482,6 +1547,766 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
+              <a:endParaRPr lang="en-IE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060759983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Measured Current</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> versus Amplified Voltage Output</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.4776027996500438E-2"/>
+                  <c:y val="-1.7416738220947438E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0256410256410258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0907297830374754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1755424063116373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2603550295857993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3451676528599608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.449704142011834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.554240631163708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6587771203155803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7633136094674562</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.867850098619328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2714-41EB-B7A4-BDDCEFB830BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.199825021872266E-2"/>
+                  <c:y val="-2.6665692310502951E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$12:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9548872180451127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9849624060150375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0526315789473681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1203007518797001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.187969924812029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.293233082706767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.398496240601503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.503759398496239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.609022556390975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.714285714285712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2714-41EB-B7A4-BDDCEFB830BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6998250218722661E-2"/>
+                  <c:y val="-2.3619489559164732E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$12:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5374149659863949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2108843537414975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.952380952380954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.69387755102041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.435374149659864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.244897959183675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.054421768707485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.863945578231291</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.673469387755105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.482993197278915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2714-41EB-B7A4-BDDCEFB830BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="667320495"/>
+        <c:axId val="667302735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="667320495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Voltage Output / V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
@@ -1523,7 +2348,669 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060759983"/>
+        <c:crossAx val="667302735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="667302735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Current / mA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667320495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Current at V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="-25000"/>
+              <a:t>out</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> = 5.0V</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12242235345581802"/>
+                  <c:y val="-0.27655552916674281"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$12:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.5300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$12:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>89.511754068716101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.673469387755105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.609022556390975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7633136094674562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC80-4A5B-BE76-937EF8AC2669}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="542832143"/>
+        <c:axId val="542845103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="542832143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>load</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> / k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+                  </a:rPr>
+                  <a:t>W</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542845103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="542845103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>load</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> / mA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542832143"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1659,6 +3146,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2691,20 +4258,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2731,16 +5330,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2760,6 +5359,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96FBC10E-E109-C404-54B9-EA9C0C33BFA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C75754-B38F-E1E5-5644-74CDD6F3EBD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3085,10 +5756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8DF596-C8F5-41ED-830C-9199DE8F65AC}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3098,39 +5769,44 @@
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45953</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3145,13 +5821,13 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>32.6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3159,747 +5835,892 @@
         <v>3.3</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2">
         <f>(1+(H3/H4))</f>
         <v>1.6748466257668713</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
         <v>0.50700000000000001</v>
       </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7">
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
         <v>0.26600000000000001</v>
       </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7">
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10">
         <v>0.14699999999999999</v>
       </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7">
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7">
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10">
         <v>9.9500000000000005E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>23</v>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>0</v>
-      </c>
-      <c r="B9">
-        <f>INT((A9/100)*B$4+0.5)</f>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.8530499999999998E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <f>H9/I$7</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f>J9/K$7</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <f>L9/M$7</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <f>N9/O$7</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>P9/Q$7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <f>INT((A10/100)*B$4+0.5)</f>
-        <v>6554</v>
-      </c>
-      <c r="C10">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D10">
-        <v>1.07</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.5781499999999999E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="I10" s="2">
-        <f>H10/I$7</f>
-        <v>1.0256410256410258</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="K10" s="2">
-        <f>J10/K$7</f>
-        <v>1.9548872180451127</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="M10" s="2">
-        <f>L10/M$7</f>
-        <v>3.5374149659863949</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="O10" s="2">
-        <f>N10/O$7</f>
-        <v>9.4032549728752262</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>P10/Q$7</f>
-        <v>52.261306532663319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <f>INT((A11/100)*B$4+0.5)</f>
-        <v>13107</v>
-      </c>
-      <c r="C11">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D11">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2.9003999999999999E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="I11" s="2">
-        <f>H11/I$7</f>
-        <v>2.0907297830374754</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="K11" s="2">
-        <f>J11/K$7</f>
-        <v>3.9849624060150375</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="M11" s="2">
-        <f>L11/M$7</f>
-        <v>7.2108843537414975</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="O11" s="2">
-        <f>N11/O$7</f>
-        <v>19.168173598553345</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="Q11" s="2">
-        <f>P11/Q$7</f>
-        <v>106.53266331658291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>30</v>
       </c>
       <c r="B12">
         <f>INT((A12/100)*B$4+0.5)</f>
-        <v>19661</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.6919500000000001E-2</v>
+        <v>1.8530499999999998E-2</v>
       </c>
       <c r="G12" s="2">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>H12/I$7</f>
-        <v>3.1755424063116373</v>
+        <f>H12/I$10</f>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <f>J12/K$7</f>
-        <v>6.0526315789473681</v>
+        <f>J12/K$10</f>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <f>L12/M$7</f>
-        <v>10.952380952380954</v>
+        <f>L12/M$10</f>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f>N12/O$7</f>
-        <v>29.113924050632914</v>
+        <f>N12/O$10</f>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <f>P12/Q$7</f>
-        <v>160.80402010050253</v>
+        <f>P12/Q$10</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>O10</f>
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="S12" s="2">
+        <f>O21</f>
+        <v>89.511754068716101</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <f>INT((A13/100)*B$4+0.5)</f>
-        <v>26214</v>
+        <v>6554</v>
       </c>
       <c r="C13">
-        <v>1.37</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D13">
-        <v>2.13</v>
+        <v>1.07</v>
       </c>
       <c r="E13" s="2">
-        <v>1.3</v>
+        <v>0.32</v>
       </c>
       <c r="F13" s="2">
-        <v>1.8530000000000001E-2</v>
+        <v>2.5781499999999999E-2</v>
       </c>
       <c r="G13" s="2">
-        <v>2.16</v>
+        <v>0.52</v>
       </c>
       <c r="H13" s="2">
-        <v>2.16</v>
+        <v>0.52</v>
       </c>
       <c r="I13" s="2">
-        <f>H13/I$7</f>
-        <v>4.2603550295857993</v>
+        <f>H13/I$10</f>
+        <v>1.0256410256410258</v>
       </c>
       <c r="J13" s="2">
-        <v>2.16</v>
+        <v>0.52</v>
       </c>
       <c r="K13" s="2">
-        <f>J13/K$7</f>
-        <v>8.1203007518797001</v>
+        <f>J13/K$10</f>
+        <v>1.9548872180451127</v>
       </c>
       <c r="L13" s="2">
-        <v>2.16</v>
+        <v>0.52</v>
       </c>
       <c r="M13" s="2">
-        <f>L13/M$7</f>
-        <v>14.69387755102041</v>
+        <f>L13/M$10</f>
+        <v>3.5374149659863949</v>
       </c>
       <c r="N13" s="2">
-        <v>2.16</v>
+        <v>0.52</v>
       </c>
       <c r="O13" s="2">
-        <f>N13/O$7</f>
-        <v>39.059674502712475</v>
+        <f>N13/O$10</f>
+        <v>9.4032549728752262</v>
       </c>
       <c r="P13" s="2">
-        <v>2.15</v>
+        <v>0.52</v>
       </c>
       <c r="Q13" s="2">
-        <f>P13/Q$7</f>
-        <v>216.08040201005022</v>
+        <f>P13/Q$10</f>
+        <v>52.261306532663319</v>
+      </c>
+      <c r="R13">
+        <f>M10</f>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="S13" s="2">
+        <f>M21</f>
+        <v>33.673469387755105</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <f>INT((A14/100)*B$4+0.5)</f>
-        <v>32768</v>
+        <v>13107</v>
       </c>
       <c r="C14">
-        <v>1.69</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="D14">
-        <v>2.39</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="2">
-        <v>1.63</v>
+        <v>0.64</v>
       </c>
       <c r="F14" s="2">
-        <v>2.8199999999999999E-2</v>
+        <v>2.9003999999999999E-2</v>
       </c>
       <c r="G14" s="2">
-        <v>2.71</v>
+        <v>1.06</v>
       </c>
       <c r="H14" s="2">
-        <v>2.71</v>
+        <v>1.06</v>
       </c>
       <c r="I14" s="2">
-        <f>H14/I$7</f>
-        <v>5.3451676528599608</v>
+        <f>H14/I$10</f>
+        <v>2.0907297830374754</v>
       </c>
       <c r="J14" s="2">
-        <v>2.71</v>
+        <v>1.06</v>
       </c>
       <c r="K14" s="2">
-        <f>J14/K$7</f>
-        <v>10.187969924812029</v>
+        <f>J14/K$10</f>
+        <v>3.9849624060150375</v>
       </c>
       <c r="L14" s="2">
-        <v>2.71</v>
+        <v>1.06</v>
       </c>
       <c r="M14" s="2">
-        <f>L14/M$7</f>
-        <v>18.435374149659864</v>
+        <f>L14/M$10</f>
+        <v>7.2108843537414975</v>
       </c>
       <c r="N14" s="2">
-        <v>2.71</v>
+        <v>1.06</v>
       </c>
       <c r="O14" s="2">
-        <f>N14/O$7</f>
-        <v>49.005424954792041</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+        <f>N14/O$10</f>
+        <v>19.168173598553345</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>P14/Q$10</f>
+        <v>106.53266331658291</v>
+      </c>
+      <c r="R14">
+        <f>K10</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S14" s="2">
+        <f>K21</f>
+        <v>18.609022556390975</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <f>INT((A15/100)*B$4+0.5)</f>
-        <v>39321</v>
+        <v>19661</v>
       </c>
       <c r="C15">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="D15">
-        <v>2.6</v>
+        <v>1.84</v>
       </c>
       <c r="E15" s="2">
-        <v>1.96</v>
+        <v>0.97</v>
       </c>
       <c r="F15" s="2">
-        <v>2.8199999999999999E-2</v>
+        <v>1.6919500000000001E-2</v>
       </c>
       <c r="G15" s="2">
-        <v>3.27</v>
+        <v>1.61</v>
       </c>
       <c r="H15" s="2">
-        <v>3.27</v>
+        <v>1.61</v>
       </c>
       <c r="I15" s="2">
-        <f>H15/I$7</f>
-        <v>6.449704142011834</v>
+        <f>H15/I$10</f>
+        <v>3.1755424063116373</v>
       </c>
       <c r="J15" s="2">
-        <v>3.27</v>
+        <v>1.61</v>
       </c>
       <c r="K15" s="2">
-        <f>J15/K$7</f>
-        <v>12.293233082706767</v>
+        <f>J15/K$10</f>
+        <v>6.0526315789473681</v>
       </c>
       <c r="L15" s="2">
-        <v>3.27</v>
+        <v>1.61</v>
       </c>
       <c r="M15" s="2">
-        <f>L15/M$7</f>
-        <v>22.244897959183675</v>
+        <f>L15/M$10</f>
+        <v>10.952380952380954</v>
       </c>
       <c r="N15" s="2">
-        <v>3.27</v>
+        <v>1.61</v>
       </c>
       <c r="O15" s="2">
-        <f>N15/O$7</f>
-        <v>59.132007233273058</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+        <f>N15/O$10</f>
+        <v>29.113924050632914</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>P15/Q$10</f>
+        <v>160.80402010050253</v>
+      </c>
+      <c r="R15">
+        <f>I10</f>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="S15" s="2">
+        <f>I21</f>
+        <v>9.7633136094674562</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <f>INT((A16/100)*B$4+0.5)</f>
-        <v>45875</v>
+        <v>26214</v>
       </c>
       <c r="C16">
-        <v>2.37</v>
+        <v>1.37</v>
       </c>
       <c r="D16">
-        <v>2.83</v>
+        <v>2.13</v>
       </c>
       <c r="E16" s="2">
-        <v>2.29</v>
+        <v>1.3</v>
       </c>
       <c r="F16" s="2">
-        <v>1.7725000000000001E-2</v>
+        <v>1.8530000000000001E-2</v>
       </c>
       <c r="G16" s="2">
-        <v>3.83</v>
+        <v>2.16</v>
       </c>
       <c r="H16" s="2">
-        <v>3.83</v>
+        <v>2.16</v>
       </c>
       <c r="I16" s="2">
-        <f>H16/I$7</f>
-        <v>7.554240631163708</v>
+        <f>H16/I$10</f>
+        <v>4.2603550295857993</v>
       </c>
       <c r="J16" s="2">
-        <v>3.83</v>
+        <v>2.16</v>
       </c>
       <c r="K16" s="2">
-        <f>J16/K$7</f>
-        <v>14.398496240601503</v>
+        <f>J16/K$10</f>
+        <v>8.1203007518797001</v>
       </c>
       <c r="L16" s="2">
-        <v>3.83</v>
+        <v>2.16</v>
       </c>
       <c r="M16" s="2">
-        <f>L16/M$7</f>
-        <v>26.054421768707485</v>
+        <f>L16/M$10</f>
+        <v>14.69387755102041</v>
       </c>
       <c r="N16" s="2">
-        <v>3.82</v>
+        <v>2.16</v>
       </c>
       <c r="O16" s="2">
-        <f>N16/O$7</f>
-        <v>69.077757685352623</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+        <f>N16/O$10</f>
+        <v>39.059674502712475</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>P16/Q$10</f>
+        <v>216.08040201005022</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <f>INT((A17/100)*B$4+0.5)</f>
-        <v>52428</v>
+        <v>32768</v>
       </c>
       <c r="C17">
-        <v>2.69</v>
+        <v>1.69</v>
       </c>
       <c r="D17">
-        <v>3.01</v>
+        <v>2.39</v>
       </c>
       <c r="E17" s="2">
-        <v>2.63</v>
+        <v>1.63</v>
       </c>
       <c r="F17" s="2">
-        <v>2.3365E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>4.3899999999999997</v>
+        <v>2.71</v>
       </c>
       <c r="H17" s="2">
-        <v>4.3899999999999997</v>
+        <v>2.71</v>
       </c>
       <c r="I17" s="2">
-        <f>H17/I$7</f>
-        <v>8.6587771203155803</v>
+        <f>H17/I$10</f>
+        <v>5.3451676528599608</v>
       </c>
       <c r="J17" s="2">
-        <v>4.3899999999999997</v>
+        <v>2.71</v>
       </c>
       <c r="K17" s="2">
-        <f>J17/K$7</f>
-        <v>16.503759398496239</v>
+        <f>J17/K$10</f>
+        <v>10.187969924812029</v>
       </c>
       <c r="L17" s="2">
-        <v>4.3899999999999997</v>
+        <v>2.71</v>
       </c>
       <c r="M17" s="2">
-        <f>L17/M$7</f>
-        <v>29.863945578231291</v>
+        <f>L17/M$10</f>
+        <v>18.435374149659864</v>
       </c>
       <c r="N17" s="2">
-        <v>4.38</v>
+        <v>2.71</v>
       </c>
       <c r="O17" s="2">
-        <f>N17/O$7</f>
-        <v>79.204339963833633</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+        <f>N17/O$10</f>
+        <v>49.005424954792041</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <f>INT((A18/100)*B$4+0.5)</f>
-        <v>58982</v>
+        <v>39321</v>
       </c>
       <c r="C18">
-        <v>3.04</v>
+        <v>2.02</v>
       </c>
       <c r="D18">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="E18" s="2">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="F18" s="2">
-        <v>2.1755E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="H18" s="2">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="I18" s="2">
-        <f>H18/I$7</f>
-        <v>9.7633136094674562</v>
+        <f>H18/I$10</f>
+        <v>6.449704142011834</v>
       </c>
       <c r="J18" s="2">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="K18" s="2">
-        <f>J18/K$7</f>
-        <v>18.609022556390975</v>
+        <f>J18/K$10</f>
+        <v>12.293233082706767</v>
       </c>
       <c r="L18" s="2">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="M18" s="2">
-        <f>L18/M$7</f>
-        <v>33.673469387755105</v>
+        <f>L18/M$10</f>
+        <v>22.244897959183675</v>
       </c>
       <c r="N18" s="2">
-        <v>4.95</v>
+        <v>3.27</v>
       </c>
       <c r="O18" s="2">
-        <f>N18/O$7</f>
-        <v>89.511754068716101</v>
+        <f>N18/O$10</f>
+        <v>59.132007233273058</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <f>INT((A19/100)*B$4+0.5)</f>
-        <v>65535</v>
+        <v>45875</v>
       </c>
       <c r="C19">
-        <v>3.37</v>
+        <v>2.37</v>
       </c>
       <c r="D19">
-        <v>3.3</v>
+        <v>2.83</v>
       </c>
       <c r="E19" s="2">
-        <v>3.29</v>
+        <v>2.29</v>
       </c>
       <c r="F19" s="2">
-        <v>1.4905E-2</v>
+        <v>1.7725000000000001E-2</v>
       </c>
       <c r="G19" s="2">
-        <v>5.51</v>
+        <v>3.83</v>
       </c>
       <c r="H19" s="2">
-        <v>5.51</v>
+        <v>3.83</v>
       </c>
       <c r="I19" s="2">
-        <f>H19/I$7</f>
-        <v>10.867850098619328</v>
+        <f>H19/I$10</f>
+        <v>7.554240631163708</v>
       </c>
       <c r="J19" s="2">
-        <v>5.51</v>
+        <v>3.83</v>
       </c>
       <c r="K19" s="2">
-        <f>J19/K$7</f>
-        <v>20.714285714285712</v>
+        <f>J19/K$10</f>
+        <v>14.398496240601503</v>
       </c>
       <c r="L19" s="2">
-        <v>5.51</v>
+        <v>3.83</v>
       </c>
       <c r="M19" s="2">
-        <f>L19/M$7</f>
-        <v>37.482993197278915</v>
+        <f>L19/M$10</f>
+        <v>26.054421768707485</v>
       </c>
       <c r="N19" s="2">
-        <v>5.51</v>
+        <v>3.82</v>
       </c>
       <c r="O19" s="2">
-        <f>N19/O$7</f>
-        <v>99.638336347197097</v>
+        <f>N19/O$10</f>
+        <v>69.077757685352623</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>11</v>
+      <c r="A20">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <f>INT((A20/100)*B$4+0.5)</f>
+        <v>52428</v>
+      </c>
+      <c r="C20">
+        <v>2.69</v>
+      </c>
+      <c r="D20">
+        <v>3.01</v>
       </c>
       <c r="E20" s="2">
-        <f>SLOPE(E9:E19, A9:A19)</f>
-        <v>3.2981818181818182E-2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
+        <v>2.63</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.3365E-2</v>
       </c>
       <c r="G20" s="2">
-        <f>SLOPE(G9:G19, E9:E19)</f>
-        <v>1.6761534312347586</v>
-      </c>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="I20" s="2">
+        <f>H20/I$10</f>
+        <v>8.6587771203155803</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K20" s="2">
+        <f>J20/K$10</f>
+        <v>16.503759398496239</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="M20" s="2">
+        <f>L20/M$10</f>
+        <v>29.863945578231291</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="O20" s="2">
+        <f>N20/O$10</f>
+        <v>79.204339963833633</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>12</v>
+      <c r="A21">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <f>INT((A21/100)*B$4+0.5)</f>
+        <v>58982</v>
+      </c>
+      <c r="C21">
+        <v>3.04</v>
+      </c>
+      <c r="D21">
+        <v>3.2</v>
       </c>
       <c r="E21" s="2">
-        <f>INTERCEPT(E9:E19, A9:A19)</f>
+        <v>2.96</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.1755E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="I21" s="2">
+        <f>H21/I$10</f>
+        <v>9.7633136094674562</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="K21" s="2">
+        <f>J21/K$10</f>
+        <v>18.609022556390975</v>
+      </c>
+      <c r="L21" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="M21" s="2">
+        <f>L21/M$10</f>
+        <v>33.673469387755105</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="O21" s="2">
+        <f>N21/O$10</f>
+        <v>89.511754068716101</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <f>INT((A22/100)*B$4+0.5)</f>
+        <v>65535</v>
+      </c>
+      <c r="C22">
+        <v>3.37</v>
+      </c>
+      <c r="D22">
+        <v>3.3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.4905E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="I22" s="2">
+        <f>H22/I$10</f>
+        <v>10.867850098619328</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="K22" s="2">
+        <f>J22/K$10</f>
+        <v>20.714285714285712</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="M22" s="2">
+        <f>L22/M$10</f>
+        <v>37.482993197278915</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="O22" s="2">
+        <f>N22/O$10</f>
+        <v>99.638336347197097</v>
+      </c>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SLOPE(E12:E22, A12:A22)</f>
+        <v>3.2981818181818182E-2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3">
+        <f>SLOPE(G12:G22, E12:E22)</f>
+        <v>1.6761534312347586</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2">
+        <f>SLOPE(I12:I22, H12:H22)</f>
+        <v>1.9723865877712039</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2">
+        <f>SLOPE(K12:K22, J12:J22)</f>
+        <v>3.759398496240602</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="2">
+        <f>SLOPE(M12:M22, L12:L22)</f>
+        <v>6.8027210884353755</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="2">
+        <f>SLOPE(O12:O22, N12:N22)</f>
+        <v>18.083182640144663</v>
+      </c>
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>SLOPE(Q12:Q16, P12:P16)</f>
+        <v>100.50251256281408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3">
+        <f>INTERCEPT(E12:E22, A12:A22)</f>
         <v>-1.3636363636363891E-2</v>
       </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2">
-        <f>INTERCEPT(G9:G19,E9:E19)</f>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3">
+        <f>INTERCEPT(G12:G22,E12:E22)</f>
         <v>-1.3090929810300356E-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2">
+        <f>1/I23</f>
+        <v>0.50699999999999978</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="2">
+        <f>1/K23</f>
+        <v>0.26599999999999996</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="2">
+        <f>1/M23</f>
+        <v>0.14699999999999996</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="2">
+        <f>1/O23</f>
+        <v>5.5300000000000009E-2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>1/Q23</f>
+        <v>9.9499999999999988E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="3">
+        <f>E23*G23</f>
+        <v>5.5282587713815494E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3">
+        <f>(G23*E24)+G24</f>
+        <v>-3.5947567508956585E-2</v>
       </c>
     </row>
   </sheetData>

--- a/uHeater_Ctrl/TestData.xlsx
+++ b/uHeater_Ctrl/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robertsheehan\Programming\Microcontrollers\ArdForPY\uHeater_Ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559AED1-1EB8-4ED9-8A47-5D439119466F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3083D08F-C165-4AA4-8B77-B0642FBF3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{834B3B8B-1579-41EA-A8D2-BD385D630267}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{834B3B8B-1579-41EA-A8D2-BD385D630267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>IBM4 PWM Characterisation</t>
   </si>
@@ -307,6 +308,69 @@
   <si>
     <t>k3</t>
   </si>
+  <si>
+    <t>Bandwidth RC Combos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <t>R scale</t>
+  </si>
+  <si>
+    <t>C scale</t>
+  </si>
+  <si>
+    <t>Two-pi</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3dB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Hz</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -367,11 +431,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1714,7 +1779,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2595,7 +2660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2840,7 +2905,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-IE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5758,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8DF596-C8F5-41ED-830C-9199DE8F65AC}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5957,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <f>INT((A12/100)*B$4+0.5)</f>
+        <f t="shared" ref="B12:B22" si="0">INT((A12/100)*B$4+0.5)</f>
         <v>0</v>
       </c>
       <c r="C12">
@@ -5979,28 +6044,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>H12/I$10</f>
+        <f t="shared" ref="I12:I22" si="1">H12/I$10</f>
         <v>0</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <f>J12/K$10</f>
+        <f t="shared" ref="K12:K22" si="2">J12/K$10</f>
         <v>0</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <f>L12/M$10</f>
+        <f t="shared" ref="M12:M22" si="3">L12/M$10</f>
         <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f>N12/O$10</f>
+        <f t="shared" ref="O12:O22" si="4">N12/O$10</f>
         <v>0</v>
       </c>
       <c r="P12" s="2">
@@ -6024,7 +6089,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <f>INT((A13/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>6554</v>
       </c>
       <c r="C13">
@@ -6046,28 +6111,28 @@
         <v>0.52</v>
       </c>
       <c r="I13" s="2">
-        <f>H13/I$10</f>
+        <f t="shared" si="1"/>
         <v>1.0256410256410258</v>
       </c>
       <c r="J13" s="2">
         <v>0.52</v>
       </c>
       <c r="K13" s="2">
-        <f>J13/K$10</f>
+        <f t="shared" si="2"/>
         <v>1.9548872180451127</v>
       </c>
       <c r="L13" s="2">
         <v>0.52</v>
       </c>
       <c r="M13" s="2">
-        <f>L13/M$10</f>
+        <f t="shared" si="3"/>
         <v>3.5374149659863949</v>
       </c>
       <c r="N13" s="2">
         <v>0.52</v>
       </c>
       <c r="O13" s="2">
-        <f>N13/O$10</f>
+        <f t="shared" si="4"/>
         <v>9.4032549728752262</v>
       </c>
       <c r="P13" s="2">
@@ -6091,7 +6156,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <f>INT((A14/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>13107</v>
       </c>
       <c r="C14">
@@ -6113,28 +6178,28 @@
         <v>1.06</v>
       </c>
       <c r="I14" s="2">
-        <f>H14/I$10</f>
+        <f t="shared" si="1"/>
         <v>2.0907297830374754</v>
       </c>
       <c r="J14" s="2">
         <v>1.06</v>
       </c>
       <c r="K14" s="2">
-        <f>J14/K$10</f>
+        <f t="shared" si="2"/>
         <v>3.9849624060150375</v>
       </c>
       <c r="L14" s="2">
         <v>1.06</v>
       </c>
       <c r="M14" s="2">
-        <f>L14/M$10</f>
+        <f t="shared" si="3"/>
         <v>7.2108843537414975</v>
       </c>
       <c r="N14" s="2">
         <v>1.06</v>
       </c>
       <c r="O14" s="2">
-        <f>N14/O$10</f>
+        <f t="shared" si="4"/>
         <v>19.168173598553345</v>
       </c>
       <c r="P14" s="2">
@@ -6158,7 +6223,7 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <f>INT((A15/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>19661</v>
       </c>
       <c r="C15">
@@ -6180,28 +6245,28 @@
         <v>1.61</v>
       </c>
       <c r="I15" s="2">
-        <f>H15/I$10</f>
+        <f t="shared" si="1"/>
         <v>3.1755424063116373</v>
       </c>
       <c r="J15" s="2">
         <v>1.61</v>
       </c>
       <c r="K15" s="2">
-        <f>J15/K$10</f>
+        <f t="shared" si="2"/>
         <v>6.0526315789473681</v>
       </c>
       <c r="L15" s="2">
         <v>1.61</v>
       </c>
       <c r="M15" s="2">
-        <f>L15/M$10</f>
+        <f t="shared" si="3"/>
         <v>10.952380952380954</v>
       </c>
       <c r="N15" s="2">
         <v>1.61</v>
       </c>
       <c r="O15" s="2">
-        <f>N15/O$10</f>
+        <f t="shared" si="4"/>
         <v>29.113924050632914</v>
       </c>
       <c r="P15" s="2">
@@ -6225,7 +6290,7 @@
         <v>40</v>
       </c>
       <c r="B16">
-        <f>INT((A16/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>26214</v>
       </c>
       <c r="C16">
@@ -6247,28 +6312,28 @@
         <v>2.16</v>
       </c>
       <c r="I16" s="2">
-        <f>H16/I$10</f>
+        <f t="shared" si="1"/>
         <v>4.2603550295857993</v>
       </c>
       <c r="J16" s="2">
         <v>2.16</v>
       </c>
       <c r="K16" s="2">
-        <f>J16/K$10</f>
+        <f t="shared" si="2"/>
         <v>8.1203007518797001</v>
       </c>
       <c r="L16" s="2">
         <v>2.16</v>
       </c>
       <c r="M16" s="2">
-        <f>L16/M$10</f>
+        <f t="shared" si="3"/>
         <v>14.69387755102041</v>
       </c>
       <c r="N16" s="2">
         <v>2.16</v>
       </c>
       <c r="O16" s="2">
-        <f>N16/O$10</f>
+        <f t="shared" si="4"/>
         <v>39.059674502712475</v>
       </c>
       <c r="P16" s="2">
@@ -6284,7 +6349,7 @@
         <v>50</v>
       </c>
       <c r="B17">
-        <f>INT((A17/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
       <c r="C17">
@@ -6306,28 +6371,28 @@
         <v>2.71</v>
       </c>
       <c r="I17" s="2">
-        <f>H17/I$10</f>
+        <f t="shared" si="1"/>
         <v>5.3451676528599608</v>
       </c>
       <c r="J17" s="2">
         <v>2.71</v>
       </c>
       <c r="K17" s="2">
-        <f>J17/K$10</f>
+        <f t="shared" si="2"/>
         <v>10.187969924812029</v>
       </c>
       <c r="L17" s="2">
         <v>2.71</v>
       </c>
       <c r="M17" s="2">
-        <f>L17/M$10</f>
+        <f t="shared" si="3"/>
         <v>18.435374149659864</v>
       </c>
       <c r="N17" s="2">
         <v>2.71</v>
       </c>
       <c r="O17" s="2">
-        <f>N17/O$10</f>
+        <f t="shared" si="4"/>
         <v>49.005424954792041</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -6339,7 +6404,7 @@
         <v>60</v>
       </c>
       <c r="B18">
-        <f>INT((A18/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>39321</v>
       </c>
       <c r="C18">
@@ -6361,28 +6426,28 @@
         <v>3.27</v>
       </c>
       <c r="I18" s="2">
-        <f>H18/I$10</f>
+        <f t="shared" si="1"/>
         <v>6.449704142011834</v>
       </c>
       <c r="J18" s="2">
         <v>3.27</v>
       </c>
       <c r="K18" s="2">
-        <f>J18/K$10</f>
+        <f t="shared" si="2"/>
         <v>12.293233082706767</v>
       </c>
       <c r="L18" s="2">
         <v>3.27</v>
       </c>
       <c r="M18" s="2">
-        <f>L18/M$10</f>
+        <f t="shared" si="3"/>
         <v>22.244897959183675</v>
       </c>
       <c r="N18" s="2">
         <v>3.27</v>
       </c>
       <c r="O18" s="2">
-        <f>N18/O$10</f>
+        <f t="shared" si="4"/>
         <v>59.132007233273058</v>
       </c>
       <c r="P18" s="2"/>
@@ -6393,7 +6458,7 @@
         <v>70</v>
       </c>
       <c r="B19">
-        <f>INT((A19/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>45875</v>
       </c>
       <c r="C19">
@@ -6415,28 +6480,28 @@
         <v>3.83</v>
       </c>
       <c r="I19" s="2">
-        <f>H19/I$10</f>
+        <f t="shared" si="1"/>
         <v>7.554240631163708</v>
       </c>
       <c r="J19" s="2">
         <v>3.83</v>
       </c>
       <c r="K19" s="2">
-        <f>J19/K$10</f>
+        <f t="shared" si="2"/>
         <v>14.398496240601503</v>
       </c>
       <c r="L19" s="2">
         <v>3.83</v>
       </c>
       <c r="M19" s="2">
-        <f>L19/M$10</f>
+        <f t="shared" si="3"/>
         <v>26.054421768707485</v>
       </c>
       <c r="N19" s="2">
         <v>3.82</v>
       </c>
       <c r="O19" s="2">
-        <f>N19/O$10</f>
+        <f t="shared" si="4"/>
         <v>69.077757685352623</v>
       </c>
       <c r="P19" s="2"/>
@@ -6447,7 +6512,7 @@
         <v>80</v>
       </c>
       <c r="B20">
-        <f>INT((A20/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>52428</v>
       </c>
       <c r="C20">
@@ -6469,28 +6534,28 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="I20" s="2">
-        <f>H20/I$10</f>
+        <f t="shared" si="1"/>
         <v>8.6587771203155803</v>
       </c>
       <c r="J20" s="2">
         <v>4.3899999999999997</v>
       </c>
       <c r="K20" s="2">
-        <f>J20/K$10</f>
+        <f t="shared" si="2"/>
         <v>16.503759398496239</v>
       </c>
       <c r="L20" s="2">
         <v>4.3899999999999997</v>
       </c>
       <c r="M20" s="2">
-        <f>L20/M$10</f>
+        <f t="shared" si="3"/>
         <v>29.863945578231291</v>
       </c>
       <c r="N20" s="2">
         <v>4.38</v>
       </c>
       <c r="O20" s="2">
-        <f>N20/O$10</f>
+        <f t="shared" si="4"/>
         <v>79.204339963833633</v>
       </c>
       <c r="P20" s="2"/>
@@ -6501,7 +6566,7 @@
         <v>90</v>
       </c>
       <c r="B21">
-        <f>INT((A21/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>58982</v>
       </c>
       <c r="C21">
@@ -6523,28 +6588,28 @@
         <v>4.95</v>
       </c>
       <c r="I21" s="2">
-        <f>H21/I$10</f>
+        <f t="shared" si="1"/>
         <v>9.7633136094674562</v>
       </c>
       <c r="J21" s="2">
         <v>4.95</v>
       </c>
       <c r="K21" s="2">
-        <f>J21/K$10</f>
+        <f t="shared" si="2"/>
         <v>18.609022556390975</v>
       </c>
       <c r="L21" s="2">
         <v>4.95</v>
       </c>
       <c r="M21" s="2">
-        <f>L21/M$10</f>
+        <f t="shared" si="3"/>
         <v>33.673469387755105</v>
       </c>
       <c r="N21" s="2">
         <v>4.95</v>
       </c>
       <c r="O21" s="2">
-        <f>N21/O$10</f>
+        <f t="shared" si="4"/>
         <v>89.511754068716101</v>
       </c>
       <c r="P21" s="2"/>
@@ -6555,7 +6620,7 @@
         <v>100</v>
       </c>
       <c r="B22">
-        <f>INT((A22/100)*B$4+0.5)</f>
+        <f t="shared" si="0"/>
         <v>65535</v>
       </c>
       <c r="C22">
@@ -6577,28 +6642,28 @@
         <v>5.51</v>
       </c>
       <c r="I22" s="2">
-        <f>H22/I$10</f>
+        <f t="shared" si="1"/>
         <v>10.867850098619328</v>
       </c>
       <c r="J22" s="2">
         <v>5.51</v>
       </c>
       <c r="K22" s="2">
-        <f>J22/K$10</f>
+        <f t="shared" si="2"/>
         <v>20.714285714285712</v>
       </c>
       <c r="L22" s="2">
         <v>5.51</v>
       </c>
       <c r="M22" s="2">
-        <f>L22/M$10</f>
+        <f t="shared" si="3"/>
         <v>37.482993197278915</v>
       </c>
       <c r="N22" s="2">
         <v>5.51</v>
       </c>
       <c r="O22" s="2">
-        <f>N22/O$10</f>
+        <f t="shared" si="4"/>
         <v>99.638336347197097</v>
       </c>
       <c r="Q22" s="2"/>
@@ -6727,4 +6792,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52992B03-0159-45CF-AB11-221B4BBDBC7F}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <f>(B8*(B4*B6)*(B5*B7))</f>
+        <v>0.62831853071795851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uHeater_Ctrl/TestData.xlsx
+++ b/uHeater_Ctrl/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robertsheehan\Programming\Microcontrollers\ArdForPY\uHeater_Ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3083D08F-C165-4AA4-8B77-B0642FBF3FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4867AFF5-0BED-4803-AAF3-017D5133EAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{834B3B8B-1579-41EA-A8D2-BD385D630267}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>IBM4 PWM Characterisation</t>
   </si>
@@ -371,6 +372,279 @@
       <t xml:space="preserve"> / Hz</t>
     </r>
   </si>
+  <si>
+    <t>Standard 10k Resistor Values</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>act</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <t>Variation / %</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>avg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>W</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +684,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="1"/>
+      <charset val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -431,12 +713,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5823,7 +6106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8DF596-C8F5-41ED-830C-9199DE8F65AC}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -6795,10 +7078,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6D84A4-C3EB-4BAA-9C47-C8DA86A612E6}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>9.94</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <f>(D3/100)*D4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2">
+        <f>AVERAGE(B4:B15)</f>
+        <v>9.9458333333333346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <f>0.5*(MAX(B4:B15)-MIN(B4:B15))</f>
+        <v>2.0000000000000462E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <f>STDEV(B4:B15)</f>
+        <v>1.0836246694508446E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52992B03-0159-45CF-AB11-221B4BBDBC7F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
